--- a/cyclesNN.xlsx
+++ b/cyclesNN.xlsx
@@ -423,67 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>11.53052756061517</v>
+        <v>0.7724775713279004</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.93784774507678</v>
+        <v>0.732260308402072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.824699703324557</v>
+        <v>0.2534333533236305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.084127482150452</v>
+        <v>0.1276061961020767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.67005166098647</v>
+        <v>0.8962634008536721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.55235464607599</v>
+        <v>0.7739018424399541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.952953536732465</v>
+        <v>0.1223483126088004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.021342762815148</v>
+        <v>0.2652424226402139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.78071723416038</v>
+        <v>1.000150259811752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29.83589564571087</v>
+        <v>1.728893897005647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.49096695034479</v>
+        <v>0.9377931549521943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28.15119597635282</v>
+        <v>1.633505894680542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30.65662274723461</v>
+        <v>1.7764735337147</v>
       </c>
     </row>
   </sheetData>

--- a/cyclesNN.xlsx
+++ b/cyclesNN.xlsx
@@ -423,67 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7724775713279004</v>
+        <v>0.4807397140463286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.732260308402072</v>
+        <v>0.472540233819811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2534333533236305</v>
+        <v>0.3366121306955679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1276061961020767</v>
+        <v>0.1034621315819381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8962634008536721</v>
+        <v>0.5447286478090758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7739018424399541</v>
+        <v>0.4811033440431726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1223483126088004</v>
+        <v>0.09943675212778388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2652424226402139</v>
+        <v>0.3571808837961592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.000150259811752</v>
+        <v>0.6738204867283258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.728893897005647</v>
+        <v>1.630394573692407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9377931549521943</v>
+        <v>0.5877373728846728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.633505894680542</v>
+        <v>1.347756662342301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.7764735337147</v>
+        <v>1.818388926082163</v>
       </c>
     </row>
   </sheetData>

--- a/cyclesNN.xlsx
+++ b/cyclesNN.xlsx
@@ -423,67 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.4807397140463286</v>
+        <v>0.5893278146332218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.472540233819811</v>
+        <v>0.5602100806817774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3366121306955679</v>
+        <v>0.2196986805951097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1034621315819381</v>
+        <v>0.1139783861337767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5447286478090758</v>
+        <v>0.6784880582067739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4811033440431726</v>
+        <v>0.5903601997795223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.09943675212778388</v>
+        <v>0.1086794533676691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3571808837961592</v>
+        <v>0.2285453783592412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6738204867283258</v>
+        <v>0.7510530191690522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.630394573692407</v>
+        <v>1.320181186029243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5877373728846728</v>
+        <v>0.7077564472190937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.347756662342301</v>
+        <v>1.239970726275314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.818388926082163</v>
+        <v>1.360068503985481</v>
       </c>
     </row>
   </sheetData>

--- a/cyclesNN.xlsx
+++ b/cyclesNN.xlsx
@@ -423,67 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.5893278146332218</v>
+        <v>11.53052756061517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5602100806817774</v>
+        <v>10.93784774507678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2196986805951097</v>
+        <v>4.824699703324557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1139783861337767</v>
+        <v>2.084127482150452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6784880582067739</v>
+        <v>13.67005166098647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5903601997795223</v>
+        <v>11.55235464607599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1086794533676691</v>
+        <v>1.952953536732465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2285453783592412</v>
+        <v>5.021342762815148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7510530191690522</v>
+        <v>15.78071723416038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.320181186029243</v>
+        <v>29.83589564571087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7077564472190937</v>
+        <v>14.49096695034479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.239970726275314</v>
+        <v>28.15119597635282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.360068503985481</v>
+        <v>30.65662274723461</v>
       </c>
     </row>
   </sheetData>

--- a/cyclesNN.xlsx
+++ b/cyclesNN.xlsx
@@ -423,67 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>11.53052756061517</v>
+        <v>11.334825034237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.93784774507678</v>
+        <v>10.59663520006506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.824699703324557</v>
+        <v>4.235963706748156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.084127482150452</v>
+        <v>1.350087353094421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.67005166098647</v>
+        <v>14.31467388997615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.55235464607599</v>
+        <v>11.36269214797636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.952953536732465</v>
+        <v>1.210875696578653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.021342762815148</v>
+        <v>4.434495584610225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.78071723416038</v>
+        <v>17.76353476167607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29.83589564571087</v>
+        <v>47.33544471253146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.49096695034479</v>
+        <v>15.59640375942489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28.15119597635282</v>
+        <v>43.70365128931961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30.65662274723461</v>
+        <v>49.08077740455352</v>
       </c>
     </row>
   </sheetData>
